--- a/Bin_data/Turkish/Turkish47.xlsx
+++ b/Bin_data/Turkish/Turkish47.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD33"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="10" spans="1:56">
       <c r="A10" s="1">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="B10">
-        <v>0.08089924884000001</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.7245424700400001</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.7520362887600001</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="AZ10">
-        <v>0.1103805492</v>
+        <v>0</v>
       </c>
       <c r="BA10">
         <v>0</v>
@@ -2082,13 +2082,13 @@
     </row>
     <row r="11" spans="1:56">
       <c r="A11" s="1">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="B11">
-        <v>0.3231993552</v>
+        <v>0.08089924884000001</v>
       </c>
       <c r="C11">
-        <v>0.34579458792</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.0738845622</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2130,37 +2130,37 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3.0797689548</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>4.895200858560001</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>6.36950673984</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>6.42704147604</v>
+        <v>0.7245424700400001</v>
       </c>
       <c r="U11">
-        <v>4.7599728888</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>3.74236464204</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.7520362887600001</v>
       </c>
       <c r="Y11">
-        <v>1.35159749136</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>1.2752189376</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.07917265632000001</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.03882429516</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -2235,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>0.1103805492</v>
       </c>
       <c r="BA11">
-        <v>0.0650007234</v>
+        <v>0</v>
       </c>
       <c r="BB11">
-        <v>0.10234924692</v>
+        <v>0</v>
       </c>
       <c r="BC11">
         <v>0</v>
@@ -2252,13 +2252,13 @@
     </row>
     <row r="12" spans="1:56">
       <c r="A12" s="1">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.3231993552</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.34579458792</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03837498612</v>
+        <v>0.0738845622</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2300,58 +2300,58 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>3.0797689548</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>4.895200858560001</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>6.36950673984</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>6.42704147604</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>4.7599728888</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>3.74236464204</v>
       </c>
       <c r="W12">
-        <v>3.93408771924</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>4.174410854760001</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>4.92978033948</v>
+        <v>1.35159749136</v>
       </c>
       <c r="Z12">
-        <v>4.006175266560001</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>3.35740764312</v>
+        <v>1.2752189376</v>
       </c>
       <c r="AB12">
-        <v>3.36453457404</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>1.32942600984</v>
+        <v>0</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>0.07917265632000001</v>
       </c>
       <c r="AF12">
-        <v>0.15350669352</v>
+        <v>0.03882429516</v>
       </c>
       <c r="AG12">
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>0.06554545944</v>
+        <v>0</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -2384,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.06565333344</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>0.06742727988</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>0.05896486884</v>
+        <v>0.0650007234</v>
       </c>
       <c r="BB12">
-        <v>0.06444127224</v>
+        <v>0.10234924692</v>
       </c>
       <c r="BC12">
         <v>0</v>
@@ -2422,13 +2422,13 @@
     </row>
     <row r="13" spans="1:56">
       <c r="A13" s="1">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.13707969612</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1109708136</v>
+        <v>0.03837498612</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2482,46 +2482,46 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0.27484508364</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>3.93408771924</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>4.174410854760001</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>4.92978033948</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>4.006175266560001</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>3.35740764312</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>3.36453457404</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1.32942600984</v>
       </c>
       <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>0.07059125196</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>0.15350669352</v>
       </c>
       <c r="AG13">
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>0.06554545944</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>0.06565333344</v>
       </c>
       <c r="AT13">
-        <v>0.10603638024</v>
+        <v>0.06742727988</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -2578,10 +2578,10 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>0.05896486884</v>
       </c>
       <c r="BB13">
-        <v>0</v>
+        <v>0.06444127224</v>
       </c>
       <c r="BC13">
         <v>0</v>
@@ -2592,13 +2592,13 @@
     </row>
     <row r="14" spans="1:56">
       <c r="A14" s="1">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.13707969612</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2625,13 +2625,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.22039283316</v>
+        <v>0.1109708136</v>
       </c>
       <c r="M14">
-        <v>0.2221241832</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.1396334886</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>0.27484508364</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0.1518182718</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>0.07059125196</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0.05024914752</v>
+        <v>0</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AT14">
-        <v>0.03327708216</v>
+        <v>0.10603638024</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="AX14">
-        <v>0.04712146536</v>
+        <v>0</v>
       </c>
       <c r="AY14">
         <v>0</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>0.05153063532</v>
+        <v>0</v>
       </c>
       <c r="BC14">
         <v>0</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="15" spans="1:56">
       <c r="A15" s="1">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2795,16 +2795,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.06087235776</v>
+        <v>0.22039283316</v>
       </c>
       <c r="M15">
-        <v>0.04713767412</v>
+        <v>0.2221241832</v>
       </c>
       <c r="N15">
-        <v>0.31406873388</v>
+        <v>0.1396334886</v>
       </c>
       <c r="O15">
-        <v>0.58723568532</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0.13793881572</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2834,22 +2834,22 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>0.9012571759200001</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.76529737788</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.72010575072</v>
+        <v>0</v>
       </c>
       <c r="AC15">
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>0.1518182718</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>0.05024914752</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>0.06268845804000001</v>
+        <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -2894,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.0622610004</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>0.03327708216</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -2906,22 +2906,22 @@
         <v>0</v>
       </c>
       <c r="AW15">
-        <v>0.06590896716</v>
+        <v>0</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>0.04712146536</v>
       </c>
       <c r="AY15">
         <v>0</v>
       </c>
       <c r="AZ15">
-        <v>0.06882062472</v>
+        <v>0</v>
       </c>
       <c r="BA15">
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>0.05153063532</v>
       </c>
       <c r="BC15">
         <v>0</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="16" spans="1:56">
       <c r="A16" s="1">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2965,16 +2965,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.19524994848</v>
+        <v>0.06087235776</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04713767412</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.31406873388</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.58723568532</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>0.13793881572</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -3004,16 +3004,16 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>0.9012571759200001</v>
       </c>
       <c r="Z16">
-        <v>0.1175348082</v>
+        <v>0.76529737788</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.10751264976</v>
+        <v>0.72010575072</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>0.07024234872</v>
+        <v>0</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>0.06268845804000001</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>0.0622610004</v>
       </c>
       <c r="AT16">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="AV16">
-        <v>0.06551774412000001</v>
+        <v>0</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>0.06590896716</v>
       </c>
       <c r="AX16">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="AZ16">
-        <v>0</v>
+        <v>0.06882062472</v>
       </c>
       <c r="BA16">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="BC16">
-        <v>0.06988724964000001</v>
+        <v>0</v>
       </c>
       <c r="BD16">
         <v>0</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="17" spans="1:56">
       <c r="A17" s="1">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1087995036</v>
+        <v>0.19524994848</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.33637099188</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>3.2738226636</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>0.43531839072</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>0.49916707512</v>
+        <v>0.1175348082</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>0.10751264976</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>0.07107447216</v>
+        <v>0</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>0.07024234872</v>
       </c>
       <c r="AI17">
-        <v>0.05936538564</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="AV17">
-        <v>0</v>
+        <v>0.06551774412000001</v>
       </c>
       <c r="AW17">
         <v>0</v>
@@ -3258,24 +3258,24 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0.09549244356</v>
+        <v>0</v>
       </c>
       <c r="BB17">
-        <v>0.09675761196</v>
+        <v>0</v>
       </c>
       <c r="BC17">
-        <v>0</v>
+        <v>0.06988724964000001</v>
       </c>
       <c r="BD17">
-        <v>0.1084792008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:56">
       <c r="A18" s="1">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="B18">
-        <v>0.0800682318</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3305,16 +3305,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.12948276648</v>
+        <v>0.1087995036</v>
       </c>
       <c r="M18">
-        <v>0.80010267504</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.27276499772</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.33637099188</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>3.2738226636</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>0.43531839072</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.49916707512</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0.05988849156000001</v>
+        <v>0.07107447216</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>0.05936538564</v>
       </c>
       <c r="AJ18">
         <v>0</v>
@@ -3413,13 +3413,13 @@
         <v>0</v>
       </c>
       <c r="AV18">
-        <v>0.0993937206</v>
+        <v>0</v>
       </c>
       <c r="AW18">
         <v>0</v>
       </c>
       <c r="AX18">
-        <v>0.366046908</v>
+        <v>0</v>
       </c>
       <c r="AY18">
         <v>0</v>
@@ -3428,24 +3428,24 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>0.09549244356</v>
       </c>
       <c r="BB18">
-        <v>0</v>
+        <v>0.09675761196</v>
       </c>
       <c r="BC18">
         <v>0</v>
       </c>
       <c r="BD18">
-        <v>0</v>
+        <v>0.1084792008</v>
       </c>
     </row>
     <row r="19" spans="1:56">
       <c r="A19" s="1">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.0800682318</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1349846724</v>
+        <v>0.12948276648</v>
       </c>
       <c r="M19">
-        <v>2.25868279524</v>
+        <v>0.80010267504</v>
       </c>
       <c r="N19">
-        <v>4.55046896784</v>
+        <v>1.27276499772</v>
       </c>
       <c r="O19">
-        <v>5.7434778492</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>4.04375779368</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -3529,10 +3529,10 @@
         <v>0</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>0.05988849156000001</v>
       </c>
       <c r="AE19">
-        <v>0.08400375191999999</v>
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>0.06626445348000001</v>
+        <v>0</v>
       </c>
       <c r="AO19">
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.06040025688</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.0460168356</v>
+        <v>0</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -3583,19 +3583,19 @@
         <v>0</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>0.0993937206</v>
       </c>
       <c r="AW19">
-        <v>0.21764143764</v>
+        <v>0</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>0.366046908</v>
       </c>
       <c r="AY19">
         <v>0</v>
       </c>
       <c r="AZ19">
-        <v>0.40067108748</v>
+        <v>0</v>
       </c>
       <c r="BA19">
         <v>0</v>
@@ -3607,12 +3607,12 @@
         <v>0</v>
       </c>
       <c r="BD19">
-        <v>0.09200236008000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:56">
       <c r="A20" s="1">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3645,25 +3645,25 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1349846724</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.25868279524</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>4.55046896784</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>5.7434778492</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>4.04375779368</v>
       </c>
       <c r="Q20">
-        <v>2.87370328248</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.76345190408</v>
+        <v>0</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>0.08400375191999999</v>
       </c>
       <c r="AF20">
-        <v>0.2544769788</v>
+        <v>0</v>
       </c>
       <c r="AG20">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>0.10046366472</v>
+        <v>0</v>
       </c>
       <c r="AK20">
         <v>0</v>
@@ -3729,13 +3729,13 @@
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>0.06626445348000001</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>0.06040025688</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>0.0460168356</v>
       </c>
       <c r="AT20">
         <v>0</v>
@@ -3753,10 +3753,10 @@
         <v>0</v>
       </c>
       <c r="AV20">
-        <v>0.20236382388</v>
+        <v>0</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>0.21764143764</v>
       </c>
       <c r="AX20">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AZ20">
-        <v>0.27430648812</v>
+        <v>0.40067108748</v>
       </c>
       <c r="BA20">
         <v>0</v>
@@ -3777,12 +3777,12 @@
         <v>0</v>
       </c>
       <c r="BD20">
-        <v>0</v>
+        <v>0.09200236008000001</v>
       </c>
     </row>
     <row r="21" spans="1:56">
       <c r="A21" s="1">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2.87370328248</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1.76345190408</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>0.2698631304</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>0.123777117</v>
+        <v>0.2544769788</v>
       </c>
       <c r="AG21">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>0.10046366472</v>
       </c>
       <c r="AK21">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>0.08052534096</v>
+        <v>0</v>
       </c>
       <c r="AN21">
         <v>0</v>
@@ -3905,40 +3905,40 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.45735998088</v>
+        <v>0</v>
       </c>
       <c r="AQ21">
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0.2109763734</v>
+        <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.32949825636</v>
+        <v>0</v>
       </c>
       <c r="AT21">
-        <v>0.30316361292</v>
+        <v>0</v>
       </c>
       <c r="AU21">
         <v>0</v>
       </c>
       <c r="AV21">
-        <v>0.08378014848</v>
+        <v>0.20236382388</v>
       </c>
       <c r="AW21">
         <v>0</v>
       </c>
       <c r="AX21">
-        <v>0.14313944892</v>
+        <v>0</v>
       </c>
       <c r="AY21">
-        <v>0.23484440868</v>
+        <v>0</v>
       </c>
       <c r="AZ21">
-        <v>0.18884024136</v>
+        <v>0.27430648812</v>
       </c>
       <c r="BA21">
-        <v>0.13257786516</v>
+        <v>0</v>
       </c>
       <c r="BB21">
         <v>0</v>
@@ -3952,10 +3952,10 @@
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="1">
-        <v>0.6599999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="B22">
-        <v>0.18759476688</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4000,19 +4000,19 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.28941139424</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1.44323590116</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1.58299358316</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0.19719859548</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>0.17334173484</v>
+        <v>0.2698631304</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>0.123777117</v>
       </c>
       <c r="AG22">
         <v>0</v>
@@ -4057,16 +4057,16 @@
         <v>0</v>
       </c>
       <c r="AJ22">
-        <v>0.13053876996</v>
+        <v>0</v>
       </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>0.11350181424</v>
+        <v>0</v>
       </c>
       <c r="AM22">
-        <v>0.06241855176</v>
+        <v>0.08052534096</v>
       </c>
       <c r="AN22">
         <v>0</v>
@@ -4075,40 +4075,40 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.11061355704</v>
+        <v>0.45735998088</v>
       </c>
       <c r="AQ22">
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>0.2109763734</v>
       </c>
       <c r="AS22">
-        <v>0</v>
+        <v>0.32949825636</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>0.30316361292</v>
       </c>
       <c r="AU22">
-        <v>0.14535363192</v>
+        <v>0</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>0.08378014848</v>
       </c>
       <c r="AW22">
-        <v>0.17752752264</v>
+        <v>0</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>0.14313944892</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>0.23484440868</v>
       </c>
       <c r="AZ22">
-        <v>0.68570650236</v>
+        <v>0.18884024136</v>
       </c>
       <c r="BA22">
-        <v>0.05794515528000001</v>
+        <v>0.13257786516</v>
       </c>
       <c r="BB22">
         <v>0</v>
@@ -4122,10 +4122,10 @@
     </row>
     <row r="23" spans="1:56">
       <c r="A23" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="B23">
-        <v>0.04716350856</v>
+        <v>0.18759476688</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4170,19 +4170,19 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1.28941139424</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1.44323590116</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1.58299358316</v>
       </c>
       <c r="T23">
-        <v>0.71521750956</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>0.19719859548</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>0.17334173484</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -4227,16 +4227,16 @@
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>0.13053876996</v>
       </c>
       <c r="AK23">
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>0.11350181424</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>0.06241855176</v>
       </c>
       <c r="AN23">
         <v>0</v>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>0.11061355704</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -4260,25 +4260,25 @@
         <v>0</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>0.14535363192</v>
       </c>
       <c r="AV23">
         <v>0</v>
       </c>
       <c r="AW23">
-        <v>0</v>
+        <v>0.17752752264</v>
       </c>
       <c r="AX23">
         <v>0</v>
       </c>
       <c r="AY23">
-        <v>0.13428094668</v>
+        <v>0</v>
       </c>
       <c r="AZ23">
-        <v>0</v>
+        <v>0.68570650236</v>
       </c>
       <c r="BA23">
-        <v>0.03187527336</v>
+        <v>0.05794515528000001</v>
       </c>
       <c r="BB23">
         <v>0</v>
@@ -4287,15 +4287,15 @@
         <v>0</v>
       </c>
       <c r="BD23">
-        <v>0.07231352952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:56">
       <c r="A24" s="1">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B24">
-        <v>0.13194251496</v>
+        <v>0.04716350856</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4337,25 +4337,25 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1.37721043008</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>0.183138243</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>0.31311911076</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1.05507747852</v>
+        <v>0.71521750956</v>
       </c>
       <c r="U24">
-        <v>0.51491098116</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>0.39022113948</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -4442,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="AY24">
-        <v>0</v>
+        <v>0.13428094668</v>
       </c>
       <c r="AZ24">
-        <v>0.36797187804</v>
+        <v>0</v>
       </c>
       <c r="BA24">
-        <v>0.18921757908</v>
+        <v>0.03187527336</v>
       </c>
       <c r="BB24">
         <v>0</v>
@@ -4457,15 +4457,15 @@
         <v>0</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>0.07231352952</v>
       </c>
     </row>
     <row r="25" spans="1:56">
       <c r="A25" s="1">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.13194251496</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4507,25 +4507,25 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.37721043008</v>
       </c>
       <c r="Q25">
-        <v>0.42345722952</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>0.30544268628</v>
+        <v>0.183138243</v>
       </c>
       <c r="S25">
-        <v>0.7113848846399999</v>
+        <v>0.31311911076</v>
       </c>
       <c r="T25">
-        <v>0.53515561176</v>
+        <v>1.05507747852</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>0.51491098116</v>
       </c>
       <c r="V25">
-        <v>0.09848669388</v>
+        <v>0.39022113948</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -4573,19 +4573,19 @@
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>0.05918211048</v>
+        <v>0</v>
       </c>
       <c r="AM25">
         <v>0</v>
       </c>
       <c r="AN25">
-        <v>0.15521774112</v>
+        <v>0</v>
       </c>
       <c r="AO25">
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.11676962196</v>
+        <v>0</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>0.14355114036</v>
+        <v>0</v>
       </c>
       <c r="AT25">
         <v>0</v>
@@ -4612,13 +4612,13 @@
         <v>0</v>
       </c>
       <c r="AY25">
-        <v>0.06897496752</v>
+        <v>0</v>
       </c>
       <c r="AZ25">
-        <v>0.09115955988</v>
+        <v>0.36797187804</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>0.18921757908</v>
       </c>
       <c r="BB25">
         <v>0</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="26" spans="1:56">
       <c r="A26" s="1">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0.07528155816</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -4680,22 +4680,22 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>0.42345722952</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>0.30544268628</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>0.7113848846399999</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>0.53515561176</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>0.09848669388</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -4719,22 +4719,22 @@
         <v>0</v>
       </c>
       <c r="AD26">
-        <v>0.13403073432</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>0.25872544416</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>0.12736467432</v>
+        <v>0</v>
       </c>
       <c r="AG26">
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>0.05850482772000001</v>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <v>0.04851165696</v>
+        <v>0</v>
       </c>
       <c r="AJ26">
         <v>0</v>
@@ -4743,34 +4743,34 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>0.15023457084</v>
+        <v>0.05918211048</v>
       </c>
       <c r="AM26">
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>0.10198385832</v>
+        <v>0.15521774112</v>
       </c>
       <c r="AO26">
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.30157299696</v>
+        <v>0.11676962196</v>
       </c>
       <c r="AQ26">
-        <v>0.15205581588</v>
+        <v>0</v>
       </c>
       <c r="AR26">
-        <v>0.19324094736</v>
+        <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.20084766864</v>
+        <v>0.14355114036</v>
       </c>
       <c r="AT26">
-        <v>0.25790200596</v>
+        <v>0</v>
       </c>
       <c r="AU26">
-        <v>0.13910086764</v>
+        <v>0</v>
       </c>
       <c r="AV26">
         <v>0</v>
@@ -4782,10 +4782,10 @@
         <v>0</v>
       </c>
       <c r="AY26">
-        <v>0.1343507052</v>
+        <v>0.06897496752</v>
       </c>
       <c r="AZ26">
-        <v>0</v>
+        <v>0.09115955988</v>
       </c>
       <c r="BA26">
         <v>0</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="27" spans="1:56">
       <c r="A27" s="1">
-        <v>0.8099999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.07528155816</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -4871,16 +4871,16 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>0.13609129368</v>
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0.07506210372</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.06495143328</v>
+        <v>0</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -4889,70 +4889,70 @@
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>0.13403073432</v>
       </c>
       <c r="AE27">
-        <v>0.10425811884</v>
+        <v>0.25872544416</v>
       </c>
       <c r="AF27">
-        <v>0.07417792416000001</v>
+        <v>0.12736467432</v>
       </c>
       <c r="AG27">
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>0.05850482772000001</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>0.04851165696</v>
       </c>
       <c r="AJ27">
-        <v>0.14089849104</v>
+        <v>0</v>
       </c>
       <c r="AK27">
-        <v>0.1233824088</v>
+        <v>0</v>
       </c>
       <c r="AL27">
-        <v>0.06769923300000001</v>
+        <v>0.15023457084</v>
       </c>
       <c r="AM27">
-        <v>0.11085773952</v>
+        <v>0</v>
       </c>
       <c r="AN27">
-        <v>0.0598166862</v>
+        <v>0.10198385832</v>
       </c>
       <c r="AO27">
-        <v>0.06281608128000001</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>0.30157299696</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>0.15205581588</v>
       </c>
       <c r="AR27">
-        <v>0.07422450360000001</v>
+        <v>0.19324094736</v>
       </c>
       <c r="AS27">
-        <v>0.07810359732</v>
+        <v>0.20084766864</v>
       </c>
       <c r="AT27">
-        <v>0.0946160088</v>
+        <v>0.25790200596</v>
       </c>
       <c r="AU27">
-        <v>0.20663961732</v>
+        <v>0.13910086764</v>
       </c>
       <c r="AV27">
-        <v>0.14566685376</v>
+        <v>0</v>
       </c>
       <c r="AW27">
         <v>0</v>
       </c>
       <c r="AX27">
-        <v>0.13632773136</v>
+        <v>0</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>0.1343507052</v>
       </c>
       <c r="AZ27">
         <v>0</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="28" spans="1:56">
       <c r="A28" s="1">
-        <v>0.84</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4996,13 +4996,13 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0.09048603887999999</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0.057824613</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0.13536079308</v>
+        <v>0</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -5041,16 +5041,16 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0.09666235092</v>
+        <v>0.13609129368</v>
       </c>
       <c r="Y28">
-        <v>0.53063629968</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>0.67771602624</v>
+        <v>0.07506210372</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>0.06495143328</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -5062,67 +5062,67 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>0.10425811884</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>0.07417792416000001</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>0.03983228088</v>
+        <v>0</v>
       </c>
       <c r="AI28">
         <v>0</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>0.14089849104</v>
       </c>
       <c r="AK28">
-        <v>0.5309193721200001</v>
+        <v>0.1233824088</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>0.06769923300000001</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>0.11085773952</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>0.0598166862</v>
       </c>
       <c r="AO28">
-        <v>0.17912566212</v>
+        <v>0.06281608128000001</v>
       </c>
       <c r="AP28">
-        <v>0.1486606062</v>
+        <v>0</v>
       </c>
       <c r="AQ28">
-        <v>0.19314496716</v>
+        <v>0</v>
       </c>
       <c r="AR28">
-        <v>0.25645295388</v>
+        <v>0.07422450360000001</v>
       </c>
       <c r="AS28">
-        <v>0.34987034424</v>
+        <v>0.07810359732</v>
       </c>
       <c r="AT28">
-        <v>0.14334042648</v>
+        <v>0.0946160088</v>
       </c>
       <c r="AU28">
-        <v>0.32110942092</v>
+        <v>0.20663961732</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>0.14566685376</v>
       </c>
       <c r="AW28">
         <v>0</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>0.13632773136</v>
       </c>
       <c r="AY28">
-        <v>0.09241482600000001</v>
+        <v>0</v>
       </c>
       <c r="AZ28">
         <v>0</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="29" spans="1:56">
       <c r="A29" s="1">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5166,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.09048603887999999</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>0.057824613</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>0.13536079308</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -5211,22 +5211,22 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>0.30368212728</v>
+        <v>0.09666235092</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>0.53063629968</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.67771602624</v>
       </c>
       <c r="AA29">
-        <v>0.02670495552</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>0.24916067148</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>0.23227108824</v>
+        <v>0</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -5241,46 +5241,46 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>0.03983228088</v>
       </c>
       <c r="AI29">
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>0.27281838012</v>
+        <v>0</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>0.5309193721200001</v>
       </c>
       <c r="AL29">
         <v>0</v>
       </c>
       <c r="AM29">
-        <v>0.15579373296</v>
+        <v>0</v>
       </c>
       <c r="AN29">
-        <v>0.1946152068</v>
+        <v>0</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>0.17912566212</v>
       </c>
       <c r="AP29">
-        <v>0.08644004472</v>
+        <v>0.1486606062</v>
       </c>
       <c r="AQ29">
-        <v>0.25398584784</v>
+        <v>0.19314496716</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>0.25645295388</v>
       </c>
       <c r="AS29">
-        <v>0</v>
+        <v>0.34987034424</v>
       </c>
       <c r="AT29">
-        <v>0.24492664464</v>
+        <v>0.14334042648</v>
       </c>
       <c r="AU29">
-        <v>0</v>
+        <v>0.32110942092</v>
       </c>
       <c r="AV29">
         <v>0</v>
@@ -5289,10 +5289,10 @@
         <v>0</v>
       </c>
       <c r="AX29">
-        <v>0.31326333</v>
+        <v>0</v>
       </c>
       <c r="AY29">
-        <v>0</v>
+        <v>0.09241482600000001</v>
       </c>
       <c r="AZ29">
         <v>0</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="30" spans="1:56">
       <c r="A30" s="1">
-        <v>0.8999999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>0.30368212728</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -5390,13 +5390,13 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.08508276852</v>
+        <v>0.02670495552</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>0.24916067148</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>0.23227108824</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0.05005386792</v>
+        <v>0</v>
       </c>
       <c r="AG30">
         <v>0</v>
@@ -5417,37 +5417,37 @@
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>0.07409184623999999</v>
+        <v>0.27281838012</v>
       </c>
       <c r="AK30">
-        <v>0.03982022112</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>0.15579373296</v>
       </c>
       <c r="AN30">
-        <v>0.14327537016</v>
+        <v>0.1946152068</v>
       </c>
       <c r="AO30">
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>0.08644004472</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.25398584784</v>
       </c>
       <c r="AR30">
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.25992539028</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>0.24492664464</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="AX30">
-        <v>0</v>
+        <v>0.31326333</v>
       </c>
       <c r="AY30">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>1.23224365092</v>
+        <v>0</v>
       </c>
       <c r="BB30">
         <v>0</v>
@@ -5482,13 +5482,13 @@
     </row>
     <row r="31" spans="1:56">
       <c r="A31" s="1">
-        <v>0.9299999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0.43565999172</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>0.08171704439999999</v>
+        <v>0</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -5560,46 +5560,46 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.09908890740000001</v>
+        <v>0.08508276852</v>
       </c>
       <c r="AB31">
-        <v>0.13415863416</v>
+        <v>0</v>
       </c>
       <c r="AC31">
         <v>0</v>
       </c>
       <c r="AD31">
-        <v>0.1580296014</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>0.08283876804</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>0.21059455476</v>
+        <v>0.05005386792</v>
       </c>
       <c r="AG31">
-        <v>0.1850929752</v>
+        <v>0</v>
       </c>
       <c r="AH31">
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0.07430455164000001</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>0.07409184623999999</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>0.03982022112</v>
       </c>
       <c r="AL31">
         <v>0</v>
       </c>
       <c r="AM31">
-        <v>0.05385036888</v>
+        <v>0</v>
       </c>
       <c r="AN31">
-        <v>0.03648127188</v>
+        <v>0.14327537016</v>
       </c>
       <c r="AO31">
         <v>0</v>
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>0</v>
+        <v>0.25992539028</v>
       </c>
       <c r="AT31">
         <v>0</v>
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="AV31">
-        <v>0.06727625628</v>
+        <v>0</v>
       </c>
       <c r="AW31">
         <v>0</v>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>2.64197195148</v>
+        <v>1.23224365092</v>
       </c>
       <c r="BB31">
         <v>0</v>
@@ -5652,19 +5652,19 @@
     </row>
     <row r="32" spans="1:56">
       <c r="A32" s="1">
-        <v>0.96</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.43565999172</v>
       </c>
       <c r="D32">
-        <v>0.23292281316</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0.19206224412</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0.15921167916</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0.21845635656</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -5703,10 +5703,10 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <v>0.1610630736</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>0.1915767558</v>
+        <v>0</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -5718,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>0.4917250968</v>
+        <v>0.08171704439999999</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -5727,76 +5727,76 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0.13868292504</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>0.13914346404</v>
+        <v>0.09908890740000001</v>
       </c>
       <c r="AB32">
-        <v>0.11957550768</v>
+        <v>0.13415863416</v>
       </c>
       <c r="AC32">
-        <v>0.07001249411999999</v>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>0.06266616408</v>
+        <v>0.1580296014</v>
       </c>
       <c r="AE32">
-        <v>0.12949891992</v>
+        <v>0.08283876804</v>
       </c>
       <c r="AF32">
-        <v>0.16589118192</v>
+        <v>0.21059455476</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>0.1850929752</v>
       </c>
       <c r="AH32">
-        <v>0.18342729</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>0.18169405908</v>
+        <v>0.07430455164000001</v>
       </c>
       <c r="AJ32">
-        <v>0.28205090088</v>
+        <v>0</v>
       </c>
       <c r="AK32">
-        <v>0.0995961918</v>
+        <v>0</v>
       </c>
       <c r="AL32">
-        <v>0.02575848564</v>
+        <v>0</v>
       </c>
       <c r="AM32">
-        <v>0.02237843364</v>
+        <v>0.05385036888</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>0.03648127188</v>
       </c>
       <c r="AO32">
-        <v>0.03437374584</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.01214274</v>
+        <v>0</v>
       </c>
       <c r="AQ32">
-        <v>0.09285600299999999</v>
+        <v>0</v>
       </c>
       <c r="AR32">
-        <v>0.42601279224</v>
+        <v>0</v>
       </c>
       <c r="AS32">
         <v>0</v>
       </c>
       <c r="AT32">
-        <v>0.34960646784</v>
+        <v>0</v>
       </c>
       <c r="AU32">
-        <v>0.21019503372</v>
+        <v>0</v>
       </c>
       <c r="AV32">
-        <v>0</v>
+        <v>0.06727625628</v>
       </c>
       <c r="AW32">
-        <v>0.29533599888</v>
+        <v>0</v>
       </c>
       <c r="AX32">
         <v>0</v>
@@ -5808,10 +5808,10 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>1.56530058756</v>
+        <v>2.64197195148</v>
       </c>
       <c r="BB32">
-        <v>0.0203906754</v>
+        <v>0</v>
       </c>
       <c r="BC32">
         <v>0</v>
@@ -5822,171 +5822,511 @@
     </row>
     <row r="33" spans="1:56">
       <c r="A33" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0.23292281316</v>
+      </c>
+      <c r="E33">
+        <v>0.19206224412</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0.15921167916</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0.21845635656</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0.1610630736</v>
+      </c>
+      <c r="S33">
+        <v>0.1915767558</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0.4917250968</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0.13868292504</v>
+      </c>
+      <c r="AA33">
+        <v>0.13914346404</v>
+      </c>
+      <c r="AB33">
+        <v>0.11957550768</v>
+      </c>
+      <c r="AC33">
+        <v>0.07001249411999999</v>
+      </c>
+      <c r="AD33">
+        <v>0.06266616408</v>
+      </c>
+      <c r="AE33">
+        <v>0.12949891992</v>
+      </c>
+      <c r="AF33">
+        <v>0.16589118192</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0.18342729</v>
+      </c>
+      <c r="AI33">
+        <v>0.18169405908</v>
+      </c>
+      <c r="AJ33">
+        <v>0.28205090088</v>
+      </c>
+      <c r="AK33">
+        <v>0.0995961918</v>
+      </c>
+      <c r="AL33">
+        <v>0.02575848564</v>
+      </c>
+      <c r="AM33">
+        <v>0.02237843364</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0.03437374584</v>
+      </c>
+      <c r="AP33">
+        <v>0.01214274</v>
+      </c>
+      <c r="AQ33">
+        <v>0.09285600299999999</v>
+      </c>
+      <c r="AR33">
+        <v>0.42601279224</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0.34960646784</v>
+      </c>
+      <c r="AU33">
+        <v>0.21019503372</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0.29533599888</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>1.56530058756</v>
+      </c>
+      <c r="BB33">
+        <v>0.0203906754</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56">
+      <c r="A34" s="1">
         <v>0.99</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>14.90317691016</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>20.3467535328</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>13.43092837968</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>13.63499650212</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>11.6527754622</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <v>10.2190260006</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>10.8970411974</v>
       </c>
-      <c r="K33">
+      <c r="K34">
         <v>10.4942250216</v>
       </c>
-      <c r="L33">
+      <c r="L34">
         <v>12.51324747024</v>
       </c>
-      <c r="M33">
+      <c r="M34">
         <v>14.7287768484</v>
       </c>
-      <c r="N33">
+      <c r="N34">
         <v>15.44063787228</v>
       </c>
-      <c r="O33">
+      <c r="O34">
         <v>14.85924812796</v>
       </c>
-      <c r="P33">
+      <c r="P34">
         <v>14.46869490252</v>
       </c>
-      <c r="Q33">
+      <c r="Q34">
         <v>14.61556789824</v>
       </c>
-      <c r="R33">
+      <c r="R34">
         <v>13.90001669844</v>
       </c>
-      <c r="S33">
+      <c r="S34">
         <v>14.39058212208</v>
       </c>
-      <c r="T33">
+      <c r="T34">
         <v>13.72278834636</v>
       </c>
-      <c r="U33">
+      <c r="U34">
         <v>12.04445915184</v>
       </c>
-      <c r="V33">
+      <c r="V34">
         <v>11.89895233884</v>
       </c>
-      <c r="W33">
+      <c r="W34">
         <v>11.40632884524</v>
       </c>
-      <c r="X33">
+      <c r="X34">
         <v>12.64672644288</v>
       </c>
-      <c r="Y33">
+      <c r="Y34">
         <v>10.96711636908</v>
       </c>
-      <c r="Z33">
+      <c r="Z34">
         <v>9.03247639308</v>
       </c>
-      <c r="AA33">
+      <c r="AA34">
         <v>9.155919156</v>
       </c>
-      <c r="AB33">
+      <c r="AB34">
         <v>7.849584654600001</v>
       </c>
-      <c r="AC33">
+      <c r="AC34">
         <v>7.3763912046</v>
       </c>
-      <c r="AD33">
+      <c r="AD34">
         <v>6.81173371344</v>
       </c>
-      <c r="AE33">
+      <c r="AE34">
         <v>5.67191241204</v>
       </c>
-      <c r="AF33">
+      <c r="AF34">
         <v>5.854476433439999</v>
       </c>
-      <c r="AG33">
+      <c r="AG34">
         <v>5.8102037268</v>
       </c>
-      <c r="AH33">
+      <c r="AH34">
         <v>5.542777276440001</v>
       </c>
-      <c r="AI33">
+      <c r="AI34">
         <v>5.32600237128</v>
       </c>
-      <c r="AJ33">
+      <c r="AJ34">
         <v>5.52786073632</v>
       </c>
-      <c r="AK33">
+      <c r="AK34">
         <v>5.2074580284</v>
       </c>
-      <c r="AL33">
+      <c r="AL34">
         <v>4.95952396728</v>
       </c>
-      <c r="AM33">
+      <c r="AM34">
         <v>6.82665871752</v>
       </c>
-      <c r="AN33">
+      <c r="AN34">
         <v>7.395620436600001</v>
       </c>
-      <c r="AO33">
+      <c r="AO34">
         <v>7.07779215552</v>
       </c>
-      <c r="AP33">
+      <c r="AP34">
         <v>6.787451884559999</v>
       </c>
-      <c r="AQ33">
+      <c r="AQ34">
         <v>6.88912169124</v>
       </c>
-      <c r="AR33">
+      <c r="AR34">
         <v>7.294544490120001</v>
       </c>
-      <c r="AS33">
+      <c r="AS34">
         <v>8.654833970519999</v>
       </c>
-      <c r="AT33">
+      <c r="AT34">
         <v>9.00683103684</v>
       </c>
-      <c r="AU33">
+      <c r="AU34">
         <v>8.52849055872</v>
       </c>
-      <c r="AV33">
+      <c r="AV34">
         <v>7.999575596160001</v>
       </c>
-      <c r="AW33">
+      <c r="AW34">
         <v>8.616623561400001</v>
       </c>
-      <c r="AX33">
+      <c r="AX34">
         <v>15.79107950616</v>
       </c>
-      <c r="AY33">
-        <v>0</v>
-      </c>
-      <c r="AZ33">
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
         <v>29.42819448768</v>
       </c>
-      <c r="BA33">
+      <c r="BA34">
         <v>28.99966491204</v>
       </c>
-      <c r="BB33">
+      <c r="BB34">
         <v>13.82288131176</v>
       </c>
-      <c r="BC33">
-        <v>0</v>
-      </c>
-      <c r="BD33">
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
         <v>0</v>
       </c>
     </row>

--- a/Bin_data/Turkish/Turkish47.xlsx
+++ b/Bin_data/Turkish/Turkish47.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5984,6 +5984,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
